--- a/ResultsCARNIVAL_VN1203vsNS1_for_3hr/VN1203vsNS1_for_3hr_HostVirus.xlsx
+++ b/ResultsCARNIVAL_VN1203vsNS1_for_3hr/VN1203vsNS1_for_3hr_HostVirus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="322">
   <si>
     <t>activity</t>
   </si>
@@ -23,25 +23,46 @@
     <t>nodetype</t>
   </si>
   <si>
-    <t>MAPK1</t>
+    <t>PRKACA</t>
+  </si>
+  <si>
+    <t>GSK3A</t>
+  </si>
+  <si>
+    <t>CIITA</t>
+  </si>
+  <si>
+    <t>E2F1</t>
+  </si>
+  <si>
+    <t>TP73</t>
+  </si>
+  <si>
+    <t>EGR1</t>
+  </si>
+  <si>
+    <t>HDAC1</t>
+  </si>
+  <si>
+    <t>ELAVL1</t>
+  </si>
+  <si>
+    <t>TRIB3</t>
   </si>
   <si>
     <t>CDK1</t>
   </si>
   <si>
+    <t>FOXK2</t>
+  </si>
+  <si>
+    <t>FASN</t>
+  </si>
+  <si>
     <t>MAPK8</t>
   </si>
   <si>
-    <t>YWHAE</t>
-  </si>
-  <si>
-    <t>ELAVL1</t>
-  </si>
-  <si>
-    <t>TRIB3</t>
-  </si>
-  <si>
-    <t>FOXK2</t>
+    <t>YWHAH</t>
   </si>
   <si>
     <t>PPP2R1A</t>
@@ -56,39 +77,27 @@
     <t>SSRP1</t>
   </si>
   <si>
-    <t>RB1</t>
+    <t>PIAS1</t>
+  </si>
+  <si>
+    <t>STAT2</t>
+  </si>
+  <si>
+    <t>PPP2CA</t>
+  </si>
+  <si>
+    <t>CAMK2A</t>
+  </si>
+  <si>
+    <t>ATF6</t>
+  </si>
+  <si>
+    <t>PRKAR1A</t>
   </si>
   <si>
     <t>TAF1</t>
   </si>
   <si>
-    <t>PIAS1</t>
-  </si>
-  <si>
-    <t>STAT2</t>
-  </si>
-  <si>
-    <t>RELA</t>
-  </si>
-  <si>
-    <t>EGR1</t>
-  </si>
-  <si>
-    <t>MDM2</t>
-  </si>
-  <si>
-    <t>TP73</t>
-  </si>
-  <si>
-    <t>PPP2CB</t>
-  </si>
-  <si>
-    <t>BTK</t>
-  </si>
-  <si>
-    <t>ATF6</t>
-  </si>
-  <si>
     <t>PIK3CA</t>
   </si>
   <si>
@@ -98,6 +107,21 @@
     <t>PBX2</t>
   </si>
   <si>
+    <t>CREM</t>
+  </si>
+  <si>
+    <t>CEACAM1</t>
+  </si>
+  <si>
+    <t>PROX1</t>
+  </si>
+  <si>
+    <t>CBFA2T3</t>
+  </si>
+  <si>
+    <t>ZNF652</t>
+  </si>
+  <si>
     <t>PRDM1</t>
   </si>
   <si>
@@ -107,94 +131,124 @@
     <t>NS1</t>
   </si>
   <si>
-    <t>CREBBP</t>
+    <t>CAMKK1</t>
+  </si>
+  <si>
+    <t>NFKB1</t>
+  </si>
+  <si>
+    <t>CREB1</t>
+  </si>
+  <si>
+    <t>HSF1</t>
+  </si>
+  <si>
+    <t>CD44</t>
+  </si>
+  <si>
+    <t>MAPK14</t>
+  </si>
+  <si>
+    <t>STAT1</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>MEF2A</t>
+  </si>
+  <si>
+    <t>MEF2C</t>
+  </si>
+  <si>
+    <t>MYOD1</t>
+  </si>
+  <si>
+    <t>USF1</t>
+  </si>
+  <si>
+    <t>CASP3</t>
+  </si>
+  <si>
+    <t>DFFB</t>
+  </si>
+  <si>
+    <t>IRF2</t>
+  </si>
+  <si>
+    <t>CASP9</t>
+  </si>
+  <si>
+    <t>CUX1</t>
+  </si>
+  <si>
+    <t>PCBD1</t>
+  </si>
+  <si>
+    <t>NR4A1</t>
+  </si>
+  <si>
+    <t>YY1</t>
+  </si>
+  <si>
+    <t>POU2F2</t>
+  </si>
+  <si>
+    <t>GATA6</t>
+  </si>
+  <si>
+    <t>RBPJ</t>
+  </si>
+  <si>
+    <t>KLF1</t>
+  </si>
+  <si>
+    <t>MAPK11</t>
   </si>
   <si>
     <t>HIF1A</t>
   </si>
   <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>JUN</t>
-  </si>
-  <si>
-    <t>NFKB1</t>
+    <t>YAP1</t>
+  </si>
+  <si>
+    <t>TEAD2</t>
+  </si>
+  <si>
+    <t>TEAD4</t>
+  </si>
+  <si>
+    <t>ELF1</t>
+  </si>
+  <si>
+    <t>PRKACB</t>
   </si>
   <si>
     <t>PPARA</t>
   </si>
   <si>
-    <t>MEF2C</t>
-  </si>
-  <si>
-    <t>NR4A1</t>
-  </si>
-  <si>
-    <t>MED1</t>
-  </si>
-  <si>
     <t>MTA1</t>
   </si>
   <si>
-    <t>MYOD1</t>
-  </si>
-  <si>
-    <t>CUX1</t>
-  </si>
-  <si>
-    <t>CAMKK1</t>
-  </si>
-  <si>
-    <t>PCBD1</t>
-  </si>
-  <si>
-    <t>RBPJ</t>
-  </si>
-  <si>
-    <t>YY1</t>
-  </si>
-  <si>
-    <t>KLF1</t>
-  </si>
-  <si>
-    <t>HSF1</t>
-  </si>
-  <si>
-    <t>POU2F2</t>
-  </si>
-  <si>
-    <t>MAPK11</t>
-  </si>
-  <si>
-    <t>MEF2A</t>
-  </si>
-  <si>
-    <t>USF1</t>
-  </si>
-  <si>
-    <t>YAP1</t>
-  </si>
-  <si>
-    <t>TEAD2</t>
-  </si>
-  <si>
-    <t>TEAD4</t>
-  </si>
-  <si>
-    <t>STK4</t>
-  </si>
-  <si>
-    <t>RASSF1</t>
-  </si>
-  <si>
-    <t>ELF1</t>
-  </si>
-  <si>
     <t>HNF1B</t>
   </si>
   <si>
-    <t>GATA6</t>
+    <t>HMGB1</t>
+  </si>
+  <si>
+    <t>HOXD9</t>
+  </si>
+  <si>
+    <t>MEIS1</t>
+  </si>
+  <si>
+    <t>NANOG</t>
+  </si>
+  <si>
+    <t>TCF12</t>
   </si>
   <si>
     <t>DownRegulated</t>
@@ -278,22 +332,40 @@
     <t>activates</t>
   </si>
   <si>
-    <t>P28482</t>
+    <t>P17612</t>
+  </si>
+  <si>
+    <t>P49840</t>
+  </si>
+  <si>
+    <t>P33076</t>
+  </si>
+  <si>
+    <t>Q01094</t>
+  </si>
+  <si>
+    <t>O15350</t>
+  </si>
+  <si>
+    <t>Q13547</t>
+  </si>
+  <si>
+    <t>Q15717</t>
+  </si>
+  <si>
+    <t>Q96RU7</t>
   </si>
   <si>
     <t>P06493</t>
   </si>
   <si>
+    <t>P49327</t>
+  </si>
+  <si>
     <t>P45983</t>
   </si>
   <si>
-    <t>P62258</t>
-  </si>
-  <si>
-    <t>Q15717</t>
-  </si>
-  <si>
-    <t>Q96RU7</t>
+    <t>Q04917</t>
   </si>
   <si>
     <t>P30153</t>
@@ -302,73 +374,178 @@
     <t>P68400</t>
   </si>
   <si>
-    <t>P06400</t>
-  </si>
-  <si>
     <t>O75925</t>
   </si>
   <si>
-    <t>Q04206</t>
-  </si>
-  <si>
-    <t>Q00987</t>
-  </si>
-  <si>
-    <t>P62714</t>
-  </si>
-  <si>
-    <t>Q06187</t>
+    <t>P67775</t>
+  </si>
+  <si>
+    <t>Q9UQM7</t>
+  </si>
+  <si>
+    <t>P10644</t>
   </si>
   <si>
     <t>P42336</t>
   </si>
   <si>
+    <t>Q03060</t>
+  </si>
+  <si>
+    <t>P13688</t>
+  </si>
+  <si>
+    <t>O75081</t>
+  </si>
+  <si>
+    <t>Q9Y2D9</t>
+  </si>
+  <si>
     <t>O75626</t>
   </si>
   <si>
-    <t>Q92793</t>
+    <t>Q8N5S9</t>
   </si>
   <si>
     <t>P19838</t>
   </si>
   <si>
+    <t>P16070</t>
+  </si>
+  <si>
+    <t>Q16539</t>
+  </si>
+  <si>
+    <t>P42224</t>
+  </si>
+  <si>
+    <t>P05412</t>
+  </si>
+  <si>
+    <t>Q02078</t>
+  </si>
+  <si>
     <t>Q06413</t>
   </si>
   <si>
+    <t>P42574</t>
+  </si>
+  <si>
+    <t>O76075</t>
+  </si>
+  <si>
+    <t>P55211</t>
+  </si>
+  <si>
+    <t>P61457</t>
+  </si>
+  <si>
     <t>P22736</t>
   </si>
   <si>
-    <t>Q15648</t>
-  </si>
-  <si>
-    <t>Q8N5S9</t>
-  </si>
-  <si>
-    <t>P61457</t>
-  </si>
-  <si>
     <t>Q15759</t>
   </si>
   <si>
-    <t>Q02078</t>
-  </si>
-  <si>
     <t>P46937</t>
   </si>
   <si>
-    <t>Q13043</t>
-  </si>
-  <si>
-    <t>Q9NS23</t>
+    <t>P22694</t>
+  </si>
+  <si>
+    <t>P35680</t>
+  </si>
+  <si>
+    <t>P09429</t>
+  </si>
+  <si>
+    <t>P28356</t>
+  </si>
+  <si>
+    <t>P16220</t>
+  </si>
+  <si>
+    <t>Q00613</t>
+  </si>
+  <si>
+    <t>Q92908</t>
+  </si>
+  <si>
+    <t>P21675</t>
+  </si>
+  <si>
+    <t>P18146</t>
+  </si>
+  <si>
+    <t>P15172</t>
+  </si>
+  <si>
+    <t>Q06330</t>
+  </si>
+  <si>
+    <t>Q13351</t>
+  </si>
+  <si>
+    <t>P40425</t>
+  </si>
+  <si>
+    <t>Q01167</t>
+  </si>
+  <si>
+    <t>P39880</t>
+  </si>
+  <si>
+    <t>P17544</t>
+  </si>
+  <si>
+    <t>Q08945</t>
+  </si>
+  <si>
+    <t>P25490</t>
+  </si>
+  <si>
+    <t>P52630</t>
+  </si>
+  <si>
+    <t>P32519</t>
+  </si>
+  <si>
+    <t>P18850</t>
+  </si>
+  <si>
+    <t>O95365</t>
+  </si>
+  <si>
+    <t>Q92786</t>
+  </si>
+  <si>
+    <t>Q99081</t>
+  </si>
+  <si>
+    <t>Q02548</t>
+  </si>
+  <si>
+    <t>P09086</t>
+  </si>
+  <si>
+    <t>Q9H9S0</t>
+  </si>
+  <si>
+    <t>P08047</t>
+  </si>
+  <si>
+    <t>P22415</t>
+  </si>
+  <si>
+    <t>P14316</t>
   </si>
   <si>
     <t>Q16665</t>
   </si>
   <si>
-    <t>P08047</t>
-  </si>
-  <si>
-    <t>P05412</t>
+    <t>Q15562</t>
+  </si>
+  <si>
+    <t>Q15561</t>
   </si>
   <si>
     <t>Q07869</t>
@@ -377,88 +554,16 @@
     <t>Q13330</t>
   </si>
   <si>
-    <t>Q01167</t>
-  </si>
-  <si>
-    <t>P15172</t>
-  </si>
-  <si>
-    <t>P39880</t>
-  </si>
-  <si>
-    <t>P17544</t>
-  </si>
-  <si>
-    <t>Q00613</t>
-  </si>
-  <si>
-    <t>P40425</t>
-  </si>
-  <si>
-    <t>Q08945</t>
-  </si>
-  <si>
-    <t>P25490</t>
-  </si>
-  <si>
-    <t>P21675</t>
-  </si>
-  <si>
-    <t>P52630</t>
-  </si>
-  <si>
-    <t>P18146</t>
-  </si>
-  <si>
-    <t>O15350</t>
-  </si>
-  <si>
-    <t>P32519</t>
-  </si>
-  <si>
-    <t>P18850</t>
-  </si>
-  <si>
-    <t>O95365</t>
-  </si>
-  <si>
-    <t>Q02548</t>
-  </si>
-  <si>
-    <t>Q06330</t>
-  </si>
-  <si>
-    <t>Q13351</t>
-  </si>
-  <si>
-    <t>P09086</t>
-  </si>
-  <si>
-    <t>Q92908</t>
-  </si>
-  <si>
-    <t>P35680</t>
-  </si>
-  <si>
-    <t>P22415</t>
-  </si>
-  <si>
-    <t>Q15562</t>
-  </si>
-  <si>
-    <t>Q15561</t>
-  </si>
-  <si>
-    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=1093</t>
-  </si>
-  <si>
-    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=191</t>
-  </si>
-  <si>
-    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=186452</t>
-  </si>
-  <si>
-    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=189019</t>
+    <t>O00470</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=625</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=58767</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=63041</t>
   </si>
   <si>
     <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=187581</t>
@@ -467,54 +572,75 @@
     <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=199340</t>
   </si>
   <si>
+    <t>HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>PhosphoNetworks;Wang</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;KEA;Kinexus_KEA;MIMP;PhosphoNetworks;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR_ProtMapper;Wang;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>CA1;HPRD;HPRD_KEA;HPRD_MIMP;KEA;MIMP;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>CA1;HPRD_MIMP;KEA;MIMP;NCI-PID_ProtMapper;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;Reactome_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;MIMP;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>CA1;HPRD_MIMP;KEA;MIMP;PhosphoNetworks;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;ProtMapper;REACH_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>ACSN;SPIKE;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;SIGNOR;Wang</t>
+  </si>
+  <si>
+    <t>DIP;HPRD;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;HPRD;SIGNOR</t>
+  </si>
+  <si>
+    <t>HPRD;NetPath;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;Wang</t>
+  </si>
+  <si>
     <t>SPIKE</t>
   </si>
   <si>
-    <t>Adhesome;HPRD;PhosphoPoint;Wang</t>
-  </si>
-  <si>
-    <t>Wang</t>
+    <t>ACSN;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;NetworKIN_KEA;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;InnateDB;MIMP;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;REACH_ProtMapper;RLIMS-P_ProtMapper;Sparser_ProtMapper;Wang;phosphoELM_MIMP</t>
   </si>
   <si>
     <t>HPRD_MIMP;MIMP;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
   </si>
   <si>
-    <t>CA1;PhosphoSite_ProtMapper;ProtMapper;Wang</t>
-  </si>
-  <si>
-    <t>BioGRID;KEGG-MEDICUS;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;SPIKE;iPTMnet</t>
-  </si>
-  <si>
-    <t>ACSN;BEL-Large-Corpus_ProtMapper;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;KEGG-MEDICUS;MIMP;PhosphoNetworks;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;dbPTM;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
-  </si>
-  <si>
-    <t>CancerCellMap;DIP;KEA;KEGG-MEDICUS;NCI-PID_ProtMapper;NetPath;NetworKIN_KEA;PhosphoPoint;ProtMapper;REACH_ProtMapper;SIGNOR;Wang</t>
-  </si>
-  <si>
-    <t>HPRD;HPRD_KEA;HPRD_MIMP;KEA;MIMP;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM_MIMP</t>
-  </si>
-  <si>
-    <t>HPRD_MIMP;MIMP;Wang;phosphoELM_MIMP</t>
-  </si>
-  <si>
-    <t>HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR_ProtMapper;iPTMnet</t>
-  </si>
-  <si>
-    <t>BEL-Large-Corpus_ProtMapper;HPRD_MIMP;KEA;MIMP;PhosphoNetworks;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
-  </si>
-  <si>
-    <t>PhosphoNetworks;Wang</t>
-  </si>
-  <si>
-    <t>HPRD_MIMP;InnateDB;MIMP;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;REACH_ProtMapper;RLIMS-P_ProtMapper;Sparser_ProtMapper;Wang;phosphoELM_MIMP</t>
-  </si>
-  <si>
-    <t>ACSN;BioGRID;ELM;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;NetPath;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;REACH_ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;dbPTM;iPTMnet;phosphoELM_MIMP</t>
-  </si>
-  <si>
     <t>KEA;MIMP;PhosphoSite_KEA;ProtMapper;REACH_ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Sparser_ProtMapper;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
   </si>
   <si>
+    <t>ACSN;ELM;HPRD_MIMP;KEA;MIMP;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;REACH_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Sparser_ProtMapper;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
     <t>ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM</t>
   </si>
   <si>
@@ -524,19 +650,16 @@
     <t>ELM;PhosphoNetworks;Wang</t>
   </si>
   <si>
+    <t>HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;InnateDB;KEA;MIMP;PhosphoNetworks;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
     <t>BioGRID;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet</t>
   </si>
   <si>
-    <t>HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;InnateDB;KEA;MIMP;PhosphoNetworks;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM_MIMP</t>
-  </si>
-  <si>
-    <t>IntAct;SIGNOR</t>
-  </si>
-  <si>
     <t>SIGNOR</t>
   </si>
   <si>
-    <t>IntAct;SIGNOR;Wang</t>
+    <t>BioGRID;DIP;HPRD;InnateDB;IntAct;Lit-BM-17;SIGNOR;Wang</t>
   </si>
   <si>
     <t>HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;IntAct;KEA;MIMP;PhosphoNetworks;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
@@ -548,103 +671,154 @@
     <t>HPRD_MIMP;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
   </si>
   <si>
-    <t>DIP;HPRD;Lit-BM-17;Wang</t>
-  </si>
-  <si>
-    <t>BioGRID;HPRD;Wang</t>
-  </si>
-  <si>
-    <t>HPRD;Lit-BM-17;Wang</t>
+    <t>HPRD;InnateDB;Lit-BM-17;MPPI;Reactome_SignaLink3;SIGNOR;SPIKE;SignaLink3;Wang</t>
+  </si>
+  <si>
+    <t>DEPOD</t>
+  </si>
+  <si>
+    <t>DEPOD;Wang</t>
+  </si>
+  <si>
+    <t>DEPOD;ProtMapper;SIGNOR;SIGNOR_ProtMapper</t>
+  </si>
+  <si>
+    <t>CA1;KEA;KEGG-MEDICUS;PhosphoPoint;PhosphoSite_KEA;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet</t>
+  </si>
+  <si>
+    <t>DIP;HPRD;HuRI;IntAct;SIGNOR;Wang</t>
+  </si>
+  <si>
+    <t>SIGNOR;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;CA1;HPRD;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;Lit-BM-17;SIGNOR</t>
+  </si>
+  <si>
+    <t>InnateDB;Wang</t>
+  </si>
+  <si>
+    <t>ACSN;Macrophage;Wang</t>
+  </si>
+  <si>
+    <t>CA1;HPRD;HPRD_MIMP;MIMP;NCI-PID_ProtMapper;PhosphoPoint;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;SignaLink3;Sparser_ProtMapper;Wang;dbPTM;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>CA1;KEA;KEGG-MEDICUS;NCI-PID_ProtMapper;NetworKIN_KEA;PhosphoPoint;ProtMapper;RLIMS-P_ProtMapper;Sparser_ProtMapper;Wang</t>
+  </si>
+  <si>
+    <t>BEL-Large-Corpus_ProtMapper;BioGRID;ELM;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;NCI-PID_ProtMapper;NetworKIN_KEA;PhosphoNetworks;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;dbPTM;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>CancerCellMap;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;NCI-PID_ProtMapper;PhosphoNetworks;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;SignaLink3;Wang;dbPTM;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>MIMP;NCI-PID_ProtMapper;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;SPIKE;Wang;iPTMnet</t>
   </si>
   <si>
     <t>HPRD;SIGNOR</t>
   </si>
   <si>
+    <t>BioGRID;CA1;InnateDB;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;SIGNOR;Wang</t>
+  </si>
+  <si>
+    <t>SignaLink3;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;Lit-BM-17;SIGNOR;Wang</t>
+  </si>
+  <si>
+    <t>ACSN;SIGNOR;Wang</t>
+  </si>
+  <si>
+    <t>ACSN;BioGRID;CA1;ELM;HPRD;InnateDB;IntAct;KEGG-MEDICUS;Lit-BM-17;Macrophage;SIGNOR;SPIKE;Wang</t>
+  </si>
+  <si>
+    <t>HuRI;SIGNOR</t>
+  </si>
+  <si>
     <t>HPRD;Wang</t>
   </si>
   <si>
-    <t>HPRD;InnateDB;NetPath;SIGNOR</t>
-  </si>
-  <si>
-    <t>BioGRID;DIP;HPRD;Lit-BM-17;SIGNOR</t>
-  </si>
-  <si>
-    <t>BioGRID;HPRD;InnateDB;Lit-BM-17;Wang</t>
-  </si>
-  <si>
-    <t>DEPOD;ProtMapper;SIGNOR;SIGNOR_ProtMapper</t>
+    <t>KEGG-MEDICUS;NCI-PID_ProtMapper;ProtMapper;Wang</t>
+  </si>
+  <si>
+    <t>Lit-BM-17;Wang</t>
+  </si>
+  <si>
+    <t>Wang;iPTMnet</t>
+  </si>
+  <si>
+    <t>HPRD;KEGG-MEDICUS;PhosphoPoint;Wang</t>
   </si>
   <si>
     <t>NCI-PID_ProtMapper;ProtMapper;Wang</t>
   </si>
   <si>
-    <t>CA1;HPRD;InnateDB;Lit-BM-17;Wang</t>
-  </si>
-  <si>
-    <t>HPRD;HPRD-phos;SIGNOR;Wang</t>
-  </si>
-  <si>
-    <t>BioGRID;DIP;SIGNOR</t>
-  </si>
-  <si>
-    <t>CA1;Macrophage;Wang</t>
-  </si>
-  <si>
-    <t>InnateDB;Wang</t>
-  </si>
-  <si>
-    <t>SignaLink3;Wang</t>
-  </si>
-  <si>
-    <t>BioGRID;Lit-BM-17;SIGNOR;Wang</t>
-  </si>
-  <si>
-    <t>HuRI;SIGNOR</t>
-  </si>
-  <si>
-    <t>HPRD;KEGG-MEDICUS;PhosphoPoint;Wang</t>
-  </si>
-  <si>
-    <t>HPRD;SIGNOR;Wang</t>
-  </si>
-  <si>
     <t>BioGRID;DIP;HPRD;HuRI;IntAct;Lit-BM-17;SIGNOR</t>
   </si>
   <si>
     <t>DIP;HPRD;IntAct;SIGNOR</t>
   </si>
   <si>
-    <t>HPRD;IntAct;Lit-BM-17;SIGNOR</t>
-  </si>
-  <si>
-    <t>SPIKE:17205132</t>
-  </si>
-  <si>
-    <t>Adhesome:15778365;HPRD:15778365</t>
-  </si>
-  <si>
-    <t>ProtMapper:19941816;SIGNOR:19941816;iPTMnet:19941816</t>
-  </si>
-  <si>
-    <t>CA1:8941362</t>
-  </si>
-  <si>
-    <t>BioGRID:18687685;PhosphoSite:16954218;PhosphoSite:18687685;PhosphoSite:26784107;ProtMapper:18519666;SIGNOR:18519666;SPIKE:10551817;iPTMnet:16954218;iPTMnet:18519666</t>
-  </si>
-  <si>
-    <t>ACSN:16079281;ACSN:18775330;ACSN:8226933;ACSN:8388392;ACSN:9604935;HPRD-phos:11904305;HPRD:11904305;KEA:11904305;KEA:14593115;KEA:14744793;ProtMapper:11904305;ProtMapper:15212693;ProtMapper:19318349;SIGNOR:11904305;SIGNOR:19318349;SIGNOR:23616010;dbPTM:11904305;dbPTM:14593115;dbPTM:16377629;iPTMnet:11904305;iPTMnet:14593115;iPTMnet:19318349;iPTMnet:20882567;phosphoELM:14593115</t>
-  </si>
-  <si>
-    <t>CancerCellMap:14676207;DIP:1922387;KEA:17570479;NetPath:14676207;ProtMapper:12881422;ProtMapper:22606284;SIGNOR:12509763;SIGNOR:23616010</t>
-  </si>
-  <si>
-    <t>HPRD:10187842;KEA:10187842;ProtMapper:10187842;SIGNOR:10187842;iPTMnet:10187842</t>
-  </si>
-  <si>
-    <t>HPRD-phos:11883936;HPRD:11883936;KEA:11883936;ProtMapper:11883936;iPTMnet:11883936</t>
-  </si>
-  <si>
-    <t>KEA:12356758;KEA:16314496;ProtMapper:15212693;ProtMapper:16314496;SIGNOR:16314496;iPTMnet:12356758;iPTMnet:16314496;phosphoELM:12356758</t>
+    <t>ProtMapper;Reactome_ProtMapper;Wang</t>
+  </si>
+  <si>
+    <t>HPRD-phos:11035810;HPRD-phos:11749387;HPRD-phos:11884598;HPRD-phos:12054501;HPRD-phos:18691976;HPRD-phos:19413330;HPRD:11035810;HPRD:11749387;HPRD:11884598;HPRD:12054501;KEA:11035810;KEA:11749387;KEA:11884598;KEA:12054501;KEA:8524413;ProtMapper:11035810;SIGNOR:11035810;iPTMnet:11035810;iPTMnet:11749387;iPTMnet:11884598;iPTMnet:12054501;iPTMnet:18691976;iPTMnet:19413330</t>
+  </si>
+  <si>
+    <t>HPRD-phos:11416140;HPRD:11416140;KEA:11416140;PhosphoSite:11416140;ProtMapper:11416140;SIGNOR:11416140;iPTMnet:11416140</t>
+  </si>
+  <si>
+    <t>KEA:10187789;KEA:11574070;PhosphoSite:11574071;ProtMapper:10187789</t>
+  </si>
+  <si>
+    <t>CA1:15197457;HPRD:12947093;KEA:12947093;KEA:15642694;PhosphoSite:12947093;PhosphoSite:15642694;ProtMapper:15642694;ProtMapper:17959673;SIGNOR:17959673;iPTMnet:12947093;iPTMnet:15642694;iPTMnet:17959673</t>
+  </si>
+  <si>
+    <t>CA1:2875459;CA1:2885756;KEA:11018520;KEA:11160957;KEA:11175347;KEA:11698596;KEA:11909979;KEA:11969286;KEA:12235136;KEA:12356771;KEA:15733869;KEA:7958915;KEA:8688081;KEA:8887554;KEA:9528766;KEA:9687510;KEA:9829964;ProtMapper:12763014;ProtMapper:8336722;SIGNOR:21902831;iPTMnet:11487623;iPTMnet:20573984</t>
+  </si>
+  <si>
+    <t>PhosphoSite:21085490;PhosphoSite:22216146;ProtMapper:21085490;SIGNOR:21085490;iPTMnet:21085490</t>
+  </si>
+  <si>
+    <t>ProtMapper:16785995;SIGNOR:16785995;iPTMnet:16785995</t>
+  </si>
+  <si>
+    <t>CA1:1846781;KEA:1516134;KEA:1651323;KEA:1846781;KEA:1956339;KEA:91332050;KEA:92065884;ProtMapper:1846781;ProtMapper:24214991;SIGNOR:16023596;SIGNOR:1846781;iPTMnet:1846781;phosphoELM:1846781;phosphoELM:1956339</t>
+  </si>
+  <si>
+    <t>ProtMapper:27273097;SIGNOR:27273097;iPTMnet:27273097</t>
+  </si>
+  <si>
+    <t>ACSN:11937641;ACSN:15210709;SPIKE:11988839;SPIKE:17488475</t>
+  </si>
+  <si>
+    <t>BioGRID:17980157;SIGNOR:23213415</t>
+  </si>
+  <si>
+    <t>DIP:9368006;HPRD:9368006</t>
+  </si>
+  <si>
+    <t>BioGRID:20124407;HPRD:11285237;HPRD:11684023;SIGNOR:11684023</t>
+  </si>
+  <si>
+    <t>HPRD:9694793;NetPath:9694793</t>
+  </si>
+  <si>
+    <t>BioGRID:15542849</t>
+  </si>
+  <si>
+    <t>SPIKE:18408768</t>
+  </si>
+  <si>
+    <t>ACSN:15279786;ACSN:17303408;ACSN:17660363;ACSN:18590585;ACSN:7575488;HPRD-phos:8087847;HPRD:8087847;KEA:17570479;KEA:8087847;PhosphoSite:27175585;ProtMapper:8087847;SIGNOR:8087847;iPTMnet:8087847;phosphoELM:8087847</t>
   </si>
   <si>
     <t>InnateDB:18593881;ProtMapper:18927508;ProtMapper:18948743;ProtMapper:20798862;ProtMapper:21935886;ProtMapper:22936947;ProtMapper:23837869;ProtMapper:26821046;ProtMapper:27303922;ProtMapper:27307117;ProtMapper:27679857;ProtMapper:27932253;ProtMapper:28272405;ProtMapper:29563610;ProtMapper:30154469</t>
@@ -653,12 +827,12 @@
     <t>ProtMapper:20810654;SIGNOR:20810654;iPTMnet:20810654</t>
   </si>
   <si>
-    <t>ACSN:15279786;ACSN:17303408;ACSN:17660363;ACSN:18590585;ACSN:7575488;BioGRID:1756735;ELM:1756735;HPRD-phos:1756735;HPRD-phos:18669648;HPRD-phos:19651622;HPRD-phos:19664994;HPRD-phos:19664995;HPRD-phos:20058876;HPRD-phos:20068231;HPRD:1756735;KEA:1756735;KEA:92097548;NetPath:10542199;ProtMapper:1756735;ProtMapper:21249227;SIGNOR:1756735;dbPTM:15084261;dbPTM:1756735;dbPTM:18220336;dbPTM:18669648;dbPTM:19413330;dbPTM:19690332;iPTMnet:1756735;iPTMnet:18669648;iPTMnet:19651622;iPTMnet:19664994;iPTMnet:19664995;iPTMnet:20058876;iPTMnet:20068231</t>
-  </si>
-  <si>
     <t>KEA:10082583;KEA:10942602;KEA:14749395;KEA:9710583;ProtMapper:10082583;ProtMapper:10764802;ProtMapper:14749395;ProtMapper:17014844;ProtMapper:21902831;SIGNOR:14749395;SIGNOR:21902831;iPTMnet:14749395;iPTMnet:17014844;iPTMnet:21902831;phosphoELM:14749395</t>
   </si>
   <si>
+    <t>ACSN:12792650;ACSN:17466630;ACSN:19016842;ACSN:19081073;ACSN:19586613;ELM:17466630;KEA:12792650;KEA:17466630;ProtMapper:16287866;ProtMapper:17466630;ProtMapper:29416675;ProtMapper:29844931;SIGNOR:16287866;SIGNOR:17466630;iPTMnet:16287866;iPTMnet:17466630;phosphoELM:17466630</t>
+  </si>
+  <si>
     <t>ProtMapper:11584018;SIGNOR:11584018;iPTMnet:11584018;phosphoELM:11584018</t>
   </si>
   <si>
@@ -668,22 +842,16 @@
     <t>ELM:25301550;ELM:26538579</t>
   </si>
   <si>
+    <t>HPRD-phos:10747973;HPRD-phos:18669648;HPRD-phos:18767875;HPRD-phos:19651622;HPRD-phos:20068231;HPRD-phos:20166139;HPRD:10747973;InnateDB:10747973;KEA:10747973;KEA:17081983;ProtMapper:10747973;SIGNOR:10747973;iPTMnet:10747973;iPTMnet:18669648;iPTMnet:18767875;iPTMnet:19651622;iPTMnet:20068231;iPTMnet:20166139</t>
+  </si>
+  <si>
     <t>BioGRID:17023523;PhosphoSite:17023523;PhosphoSite:22002310;ProtMapper:17023523;SIGNOR:17023523;iPTMnet:17023523</t>
   </si>
   <si>
-    <t>HPRD-phos:10747973;HPRD-phos:18669648;HPRD-phos:18767875;HPRD-phos:19651622;HPRD-phos:20068231;HPRD-phos:20166139;HPRD:10747973;InnateDB:10747973;KEA:10747973;KEA:17081983;ProtMapper:10747973;SIGNOR:10747973;iPTMnet:10747973;iPTMnet:18669648;iPTMnet:18767875;iPTMnet:19651622;iPTMnet:20068231;iPTMnet:20166139</t>
-  </si>
-  <si>
-    <t>IntAct:25751139;SIGNOR:21084559</t>
-  </si>
-  <si>
-    <t>SIGNOR:21776416</t>
-  </si>
-  <si>
-    <t>SPIKE:18408768</t>
-  </si>
-  <si>
-    <t>IntAct:15936019;SIGNOR:16039140</t>
+    <t>SIGNOR:21084559</t>
+  </si>
+  <si>
+    <t>BioGRID:21159657;DIP:17529992;DIP:19915589;HPRD:17540176;HPRD:18715871;HPRD:8617797;InnateDB:16769727;IntAct:15761952;IntAct:17274953;IntAct:17529992;IntAct:18715871;IntAct:19915589;IntAct:8617797;Lit-BM-17:12370081;Lit-BM-17:15761952;Lit-BM-17:17055435;Lit-BM-17:17374643;Lit-BM-17:17529992;Lit-BM-17:17540176;Lit-BM-17:17632056;Lit-BM-17:18715871;Lit-BM-17:18782753;Lit-BM-17:19156129;Lit-BM-17:19293187;Lit-BM-17:19818709;Lit-BM-17:19915589;Lit-BM-17:21159657;Lit-BM-17:22379092;Lit-BM-17:23443559;Lit-BM-17:24841198;Lit-BM-17:26496610;Lit-BM-17:28330616;Lit-BM-17:8617797;SIGNOR:16039140</t>
   </si>
   <si>
     <t>HPRD-phos:15659405;HPRD-phos:17287340;HPRD-phos:19007248;HPRD-phos:20068231;HPRD:15659405;IntAct:22113938;KEA:15659405;PhosphoSite:15659405;ProtMapper:15659405;SIGNOR:15659405;iPTMnet:15659405;iPTMnet:17287340;iPTMnet:19007248;iPTMnet:20068231;phosphoELM:15659405</t>
@@ -695,100 +863,121 @@
     <t>PhosphoSite:22184066;ProtMapper:23226345;SIGNOR:23226345;iPTMnet:23226345</t>
   </si>
   <si>
-    <t>DIP:7724524;HPRD:7724524;HPRD:9242374;HPRD:9858607;Lit-BM-17:11126356;Lit-BM-17:7724524;Lit-BM-17:9242374;Lit-BM-17:9858607</t>
-  </si>
-  <si>
-    <t>SPIKE:15674338</t>
-  </si>
-  <si>
-    <t>BioGRID:10850422;HPRD:10850422;HPRD:7732011</t>
-  </si>
-  <si>
-    <t>HPRD:10026157;HPRD:9545246;Lit-BM-17:10026157;Lit-BM-17:9545246</t>
-  </si>
-  <si>
-    <t>HPRD:8381715;SIGNOR:21902831</t>
-  </si>
-  <si>
-    <t>HPRD:12393906</t>
-  </si>
-  <si>
     <t>SIGNOR:22555612</t>
   </si>
   <si>
-    <t>HPRD:10671503;InnateDB:19837667;InnateDB:19915002;NetPath:19915002;SIGNOR:10671503</t>
-  </si>
-  <si>
-    <t>HPRD:10542237</t>
-  </si>
-  <si>
-    <t>BioGRID:10321734;DIP:10321734;DIP:19218448;HPRD:10207051;HPRD:10435614;HPRD:11223036;Lit-BM-17:10207051;Lit-BM-17:10321734;Lit-BM-17:10435614;Lit-BM-17:10469568;Lit-BM-17:18499675;Lit-BM-17:19218448;Lit-BM-17:20588255;Lit-BM-17:21088494;Lit-BM-17:21261729;Lit-BM-17:25301064;Lit-BM-17:25417702;Lit-BM-17:26025930;SIGNOR:17700533</t>
-  </si>
-  <si>
-    <t>BioGRID:15880652;BioGRID:25535359;HPRD:10640274;HPRD:12606552;InnateDB:17234751;Lit-BM-17:10640274;Lit-BM-17:12606552;Lit-BM-17:19696166;Lit-BM-17:25447306</t>
+    <t>HPRD:10805787;HPRD:12855578;HPRD:9724754;InnateDB:12171910;InnateDB:19136629;Lit-BM-17:10805787;Lit-BM-17:11257227;Lit-BM-17:12171910;Lit-BM-17:17371985;Lit-BM-17:18566411;Lit-BM-17:25241761;Lit-BM-17:9724754;MPPI:9724754;SIGNOR:14699505;SIGNOR:23663276;SPIKE:11709556;SignaLink3:10805787;SignaLink3:12855578;SignaLink3:14699505;SignaLink3:18031232;SignaLink3:18988627;SignaLink3:23331499;SignaLink3:29145629;SignaLink3:9724754</t>
+  </si>
+  <si>
+    <t>DEPOD:8550570</t>
+  </si>
+  <si>
+    <t>DEPOD:7798931;DEPOD:9109540</t>
   </si>
   <si>
     <t>DEPOD:18714041;ProtMapper:18714041;SIGNOR:18714041</t>
   </si>
   <si>
-    <t>ProtMapper:9108083</t>
-  </si>
-  <si>
-    <t>CA1:8545107;HPRD:16055710;HPRD:2138276;HPRD:9786917;InnateDB:17296604;InnateDB:9659924;Lit-BM-17:10327051;Lit-BM-17:17296604;Lit-BM-17:18443043;Lit-BM-17:8028671;Lit-BM-17:9659924</t>
-  </si>
-  <si>
-    <t>SIGNOR:11062529</t>
-  </si>
-  <si>
-    <t>HPRD-phos:10944526;HPRD:10944526;HPRD:11463815;HPRD:2176177;HPRD:9238849;SIGNOR:10944526</t>
-  </si>
-  <si>
-    <t>BioGRID:11259590;DIP:21670263;SIGNOR:11259590</t>
-  </si>
-  <si>
-    <t>CA1:9660950;Macrophage:16835236</t>
+    <t>CA1:1646483;CA1:7958915;KEA:11018520;KEA:11160957;KEA:11175347;KEA:11698596;KEA:11909979;KEA:11969286;KEA:12235136;KEA:12356771;KEA:15733869;KEA:7958915;KEA:8688081;KEA:8887554;KEA:9528766;KEA:9687510;KEA:9829964;ProtMapper:11013247;ProtMapper:11970864;ProtMapper:9668047;SIGNOR:11013247;SIGNOR:11970864;SIGNOR:9668047;iPTMnet:11013247;iPTMnet:11970864;iPTMnet:9668047</t>
+  </si>
+  <si>
+    <t>DIP:24700472;DIP:24855271;HPRD:11834733;HPRD:9405392;IntAct:15655353;IntAct:17353931;IntAct:24700472;IntAct:24855271;SIGNOR:26687711</t>
+  </si>
+  <si>
+    <t>SIGNOR:26687711</t>
+  </si>
+  <si>
+    <t>BioGRID:22531917;CA1:1847666;HPRD:7809053</t>
+  </si>
+  <si>
+    <t>HPRD:16966434;Lit-BM-17:16966434;SIGNOR:20116376</t>
   </si>
   <si>
     <t>InnateDB:7692236</t>
   </si>
   <si>
+    <t>ACSN:10747897;ACSN:11274345;ACSN:12697810;ACSN:15649893;ACSN:16648474;ACSN:17255949;Macrophage:15371334;Macrophage:17072322</t>
+  </si>
+  <si>
+    <t>CA1:10201984;HPRD:11226159;ProtMapper:10201984;ProtMapper:17502367;ProtMapper:25950470;ProtMapper:28262979;SIGNOR:17502367;SignaLink3:17502367;SignaLink3:23331499;dbPTM:15322115;dbPTM:17897103;dbPTM:18669648;dbPTM:18691976;dbPTM:19690332;dbPTM:7543024;iPTMnet:14963018;iPTMnet:17502367</t>
+  </si>
+  <si>
+    <t>CA1:12475989;KEA:17570479;ProtMapper:17689131;ProtMapper:25483191</t>
+  </si>
+  <si>
+    <t>BioGRID:10330143;BioGRID:9858528;ELM:10330143;ELM:11786537;HPRD-phos:10849446;HPRD-phos:9858528;HPRD:10330143;HPRD:10849446;HPRD:9858528;KEA:10849446;KEA:12586839;KEA:12691662;KEA:17570479;KEA:9858528;PhosphoSite:10849446;PhosphoSite:12586839;PhosphoSite:12691662;PhosphoSite:15340086;PhosphoSite:16484498;PhosphoSite:9858528;ProtMapper:12586839;ProtMapper:15212693;ProtMapper:9858528;SIGNOR:12586839;SIGNOR:9858528;dbPTM:10330143;dbPTM:10849446;dbPTM:12586839;dbPTM:17785444;dbPTM:18669648;dbPTM:9858528;iPTMnet:10849446;iPTMnet:12586839;iPTMnet:9858528;phosphoELM:12586839;phosphoELM:9858528</t>
+  </si>
+  <si>
+    <t>CancerCellMap:9069290;HPRD-phos:10805738;HPRD-phos:9069290;HPRD:10330143;HPRD:10805738;HPRD:9069290;HPRD:9753748;KEA:10805738;KEA:9069290;KEA:9384584;PhosphoSite:26660426;PhosphoSite:9069290;PhosphoSite:9384584;ProtMapper:9069290;ProtMapper:9858528;SIGNOR:21902831;SIGNOR:9069290;SIGNOR:9858528;SignaLink3:10330143;SignaLink3:10805738;SignaLink3:18988627;SignaLink3:23331499;SignaLink3:9069290;SignaLink3:9753748;dbPTM:9069290;dbPTM:9384584;iPTMnet:10805738;iPTMnet:9069290;iPTMnet:9858528;phosphoELM:9069290</t>
+  </si>
+  <si>
+    <t>PhosphoSite:11532965;PhosphoSite:16622840;PhosphoSite:19389701;PhosphoSite:21873430;ProtMapper:11532965;ProtMapper:19389701;SIGNOR:19389701;SPIKE:19389701;iPTMnet:11532965;iPTMnet:19389701</t>
+  </si>
+  <si>
+    <t>HPRD:15778351;SIGNOR:15778351</t>
+  </si>
+  <si>
+    <t>BioGRID:2138276;CA1:1827203;CA1:8290251;InnateDB:18641343</t>
+  </si>
+  <si>
+    <t>HPRD:8548800;HPRD:9418854;SIGNOR:9418854</t>
+  </si>
+  <si>
     <t>SignaLink3:23331499;SignaLink3:9384584</t>
   </si>
   <si>
     <t>BioGRID:9418854;Lit-BM-17:15743821;Lit-BM-17:9418854;SIGNOR:9418854</t>
   </si>
   <si>
+    <t>ACSN:9108473;ACSN:9422506;SIGNOR:9108473</t>
+  </si>
+  <si>
+    <t>ACSN:10508159;ACSN:12792650;ACSN:16977332;ACSN:19465923;ACSN:19788417;ACSN:9390557;ACSN:9765224;ACSN:9812896;BioGRID:17437405;CA1:9390557;ELM:8900201;HPRD:1067155;HPRD:11230124;HPRD:8900201;InnateDB:12181739;InnateDB:12620238;InnateDB:17437405;InnateDB:8900201;IntAct:11230124;IntAct:18723680;IntAct:25241761;Lit-BM-17:11230124;Lit-BM-17:11242052;Lit-BM-17:15507451;Lit-BM-17:15941357;Lit-BM-17:17437405;Lit-BM-17:18723680;Lit-BM-17:25241761;Macrophage:10708865;Macrophage:11230124;Macrophage:15725726;Macrophage:9708736;SIGNOR:15657060;SIGNOR:9390557;SPIKE:9390557</t>
+  </si>
+  <si>
+    <t>SIGNOR:24204001</t>
+  </si>
+  <si>
     <t>HPRD:18305400</t>
   </si>
   <si>
-    <t>HPRD:11724781</t>
-  </si>
-  <si>
-    <t>SIGNOR:24204001</t>
+    <t>ProtMapper:11335727;ProtMapper:11532940</t>
+  </si>
+  <si>
+    <t>Lit-BM-17:21900206;Lit-BM-17:23602568</t>
+  </si>
+  <si>
+    <t>iPTMnet:14963018</t>
   </si>
   <si>
     <t>HPRD:9235954</t>
   </si>
   <si>
+    <t>ProtMapper:9858528</t>
+  </si>
+  <si>
     <t>ProtMapper:9069290;ProtMapper:9858528</t>
   </si>
   <si>
-    <t>ProtMapper:9858528</t>
-  </si>
-  <si>
     <t>ProtMapper:11532965</t>
   </si>
   <si>
-    <t>HPRD:8548800;HPRD:9418854;SIGNOR:9418854</t>
-  </si>
-  <si>
     <t>BioGRID:25973055;DIP:20368466;DIP:25751139;HPRD:11358867;IntAct:20368466;Lit-BM-17:25973055;Lit-BM-17:26578655;SIGNOR:23431053</t>
   </si>
   <si>
     <t>DIP:25751139;DIP:25751140;DIP:26592798;HPRD:11358867;IntAct:24525233;IntAct:25751139;IntAct:25751140;IntAct:26592798;SIGNOR:23431053</t>
   </si>
   <si>
-    <t>HPRD:15109305;IntAct:14729613;IntAct:15109305;IntAct:20920251;Lit-BM-17:14729613;Lit-BM-17:15109305;Lit-BM-17:17598981;Lit-BM-17:20562859;Lit-BM-17:23386615;Lit-BM-17:23455922;Lit-BM-17:24255178;Lit-BM-17:24366813;Lit-BM-17:26186194;Lit-BM-17:26578655;SIGNOR:21808241;SIGNOR:22683405</t>
+    <t>SIGNOR:9671480</t>
+  </si>
+  <si>
+    <t>HPRD:12604365</t>
+  </si>
+  <si>
+    <t>HPRD:8890171</t>
+  </si>
+  <si>
+    <t>SIGNOR:10523646</t>
   </si>
   <si>
     <t>ppi</t>
@@ -1162,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1181,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1192,10 +1381,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1203,10 +1392,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1214,10 +1403,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1225,10 +1414,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1236,10 +1425,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1247,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1258,10 +1447,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1269,10 +1458,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1280,10 +1469,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1291,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1302,10 +1491,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1313,10 +1502,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1324,10 +1513,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1335,10 +1524,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1346,10 +1535,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1357,10 +1546,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1368,10 +1557,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1379,10 +1568,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1390,10 +1579,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1401,10 +1590,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1412,10 +1601,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1423,10 +1612,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1434,10 +1623,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1445,10 +1634,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1456,10 +1645,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1467,10 +1656,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1478,10 +1667,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1489,10 +1678,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1500,10 +1689,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1511,10 +1700,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1522,10 +1711,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1533,10 +1722,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1544,10 +1733,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1555,10 +1744,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1566,10 +1755,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1577,10 +1766,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1588,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1599,10 +1788,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1610,10 +1799,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1621,10 +1810,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1632,10 +1821,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1643,10 +1832,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1654,10 +1843,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1665,10 +1854,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1676,10 +1865,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1687,10 +1876,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1698,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1709,10 +1898,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1720,10 +1909,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1731,10 +1920,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1742,10 +1931,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1753,10 +1942,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1764,10 +1953,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1775,10 +1964,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1786,10 +1975,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1797,10 +1986,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1808,10 +1997,208 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2208,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1829,64 +2216,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1897,16 +2284,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1933,22 +2320,22 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U2" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1959,16 +2346,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -1995,22 +2382,22 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="Q3" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2021,43 +2408,43 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2066,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2080,22 +2467,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2116,22 +2503,22 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="Q5" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
       <c r="T5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U5" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2142,22 +2529,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2178,19 +2565,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>254</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2201,22 +2591,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2237,22 +2627,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="Q7" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U7" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2263,22 +2653,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2299,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="Q8" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="R8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>5</v>
       </c>
-      <c r="T8">
-        <v>8</v>
-      </c>
       <c r="U8" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2325,22 +2715,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2361,22 +2751,22 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="Q9" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="R9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2384,64 +2774,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="Q10" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="S10">
         <v>8</v>
       </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
       <c r="T10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U10" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2449,58 +2836,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>194</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>259</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U11" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2508,25 +2898,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2547,22 +2937,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2570,25 +2957,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2609,19 +2996,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>196</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>260</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -2629,25 +3019,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2668,22 +3058,19 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2691,61 +3078,61 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>261</v>
+      </c>
+      <c r="R15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>209</v>
-      </c>
-      <c r="R15">
-        <v>8</v>
-      </c>
-      <c r="S15">
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="T15">
-        <v>7</v>
-      </c>
       <c r="U15" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2753,22 +3140,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -2777,34 +3164,40 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>198</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>262</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2812,25 +3205,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2851,22 +3244,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -2874,61 +3264,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>263</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="T18">
         <v>3</v>
       </c>
-      <c r="H18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>211</v>
-      </c>
-      <c r="R18">
-        <v>3</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>4</v>
-      </c>
       <c r="U18" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2936,61 +3326,61 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>264</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>212</v>
-      </c>
-      <c r="R19">
-        <v>34</v>
-      </c>
-      <c r="S19">
-        <v>19</v>
-      </c>
-      <c r="T19">
-        <v>14</v>
-      </c>
       <c r="U19" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2998,25 +3388,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3037,22 +3427,22 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="Q20" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="R20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3060,61 +3450,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="Q21" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -3122,25 +3512,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -3161,22 +3551,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -3184,25 +3571,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -3223,19 +3610,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>203</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>267</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U23" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -3243,61 +3633,61 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>268</v>
+      </c>
+      <c r="R24">
+        <v>15</v>
+      </c>
+      <c r="S24">
+        <v>15</v>
+      </c>
+      <c r="T24">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>216</v>
-      </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
       <c r="U24" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3305,61 +3695,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>269</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>217</v>
-      </c>
-      <c r="R25">
-        <v>6</v>
-      </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
-      <c r="T25">
-        <v>6</v>
-      </c>
       <c r="U25" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -3367,31 +3757,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3406,22 +3796,22 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="Q26" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="R26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S26">
         <v>7</v>
       </c>
       <c r="T26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U26" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -3429,25 +3819,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -3468,22 +3858,22 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="Q27" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U27" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -3491,25 +3881,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -3530,22 +3920,22 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="Q28" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S28">
         <v>1</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U28" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3553,25 +3943,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3592,22 +3982,19 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -3615,25 +4002,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3654,19 +4041,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>209</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>273</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -3674,25 +4064,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3713,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -3725,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="U31" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3733,25 +4123,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3772,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="Q32" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="R32">
         <v>2</v>
@@ -3787,7 +4177,7 @@
         <v>3</v>
       </c>
       <c r="U32" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -3795,61 +4185,61 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>275</v>
+      </c>
+      <c r="R33">
+        <v>18</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
         <v>11</v>
       </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>223</v>
-      </c>
-      <c r="R33">
-        <v>15</v>
-      </c>
-      <c r="S33">
-        <v>5</v>
-      </c>
-      <c r="T33">
-        <v>12</v>
-      </c>
       <c r="U33" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3857,61 +4247,61 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="Q34" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S34">
         <v>2</v>
       </c>
       <c r="T34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U34" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3919,26 +4309,26 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" t="s">
-        <v>34</v>
-      </c>
       <c r="I35">
         <v>1</v>
       </c>
@@ -3958,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3970,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3978,61 +4368,61 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="Q36" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U36" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -4040,64 +4430,58 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="R37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U37" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -4105,25 +4489,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -4143,23 +4527,26 @@
       <c r="N38">
         <v>0</v>
       </c>
+      <c r="O38" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="Q38" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U38" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -4167,61 +4554,61 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="Q39" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U39" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -4229,25 +4616,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -4268,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="Q40" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="R40">
         <v>4</v>
@@ -4280,10 +4667,10 @@
         <v>2</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U40" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -4291,25 +4678,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4330,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -4342,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -4350,25 +4737,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4389,22 +4776,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="Q42" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S42">
         <v>2</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U42" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -4412,25 +4799,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4451,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4463,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="U43" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -4471,25 +4858,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4510,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="Q44" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -4522,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -4533,25 +4920,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4560,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -4572,22 +4959,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="Q45" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U45" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -4595,61 +4982,61 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="Q46" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="R46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U46" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -4657,61 +5044,58 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -4719,64 +5103,61 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="Q48" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="R48">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U48" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4784,61 +5165,61 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="Q49" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="R49">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U49" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -4846,61 +5227,58 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="R50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -4908,25 +5286,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -4947,22 +5325,19 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
       <c r="U51" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4970,25 +5345,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -4997,31 +5372,34 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>222</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>287</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U52" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -5029,58 +5407,64 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F53" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="P53" t="s">
-        <v>152</v>
+        <v>223</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>288</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U53" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -5088,46 +5472,46 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -5139,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="U54" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -5147,58 +5531,61 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>224</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>289</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -5206,25 +5593,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5245,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -5257,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="U56" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -5265,25 +5652,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5304,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5316,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="U57" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -5324,46 +5711,46 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5375,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="U58" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -5383,25 +5770,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5422,19 +5809,22 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>152</v>
+        <v>225</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>290</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U59" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -5442,46 +5832,46 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5493,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="U60" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -5501,13 +5891,61 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="P61" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>291</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -5515,13 +5953,58 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
         <v>34</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>195</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -5529,46 +6012,46 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -5580,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="U63" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -5588,61 +6071,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" t="s">
-        <v>117</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>239</v>
-      </c>
-      <c r="R64">
-        <v>11</v>
-      </c>
-      <c r="S64">
-        <v>9</v>
-      </c>
-      <c r="T64">
-        <v>5</v>
-      </c>
-      <c r="U64" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -5650,61 +6085,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" t="s">
-        <v>103</v>
-      </c>
-      <c r="F65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>240</v>
-      </c>
-      <c r="R65">
-        <v>1</v>
-      </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
-      <c r="T65">
-        <v>1</v>
-      </c>
-      <c r="U65" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -5712,25 +6099,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H66" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -5751,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -5763,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="U66" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -5771,25 +6158,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H67" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -5810,22 +6197,22 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="Q67" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="R67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U67" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -5833,25 +6220,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H68" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -5872,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5884,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="U68" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5892,25 +6279,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H69" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -5931,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5943,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="U69" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5951,25 +6338,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -5989,26 +6376,23 @@
       <c r="N70">
         <v>0</v>
       </c>
-      <c r="O70" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="Q70" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="R70">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -6016,25 +6400,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6055,22 +6439,19 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U71" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -6078,25 +6459,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6117,22 +6498,22 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="Q72" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U72" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -6140,25 +6521,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -6179,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -6191,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="U73" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -6199,25 +6580,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -6238,22 +6619,22 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="Q74" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U74" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -6261,61 +6642,61 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>296</v>
+      </c>
+      <c r="R75">
         <v>36</v>
       </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" t="s">
-        <v>105</v>
-      </c>
-      <c r="F75" t="s">
-        <v>121</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>246</v>
-      </c>
-      <c r="R75">
-        <v>4</v>
-      </c>
       <c r="S75">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T75">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U75" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -6323,25 +6704,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -6362,22 +6743,22 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="Q76" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U76" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -6385,25 +6766,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F77" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -6424,22 +6805,19 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U77" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -6447,25 +6825,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" t="s">
         <v>43</v>
       </c>
-      <c r="E78" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" t="s">
-        <v>42</v>
-      </c>
       <c r="H78" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6486,19 +6864,22 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>152</v>
+        <v>233</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>298</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T78">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U78" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -6506,25 +6887,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E79" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -6545,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="Q79" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="R79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -6560,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="U79" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -6568,25 +6949,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="G80" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6607,19 +6988,22 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>162</v>
+        <v>235</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>300</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U80" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -6627,25 +7011,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -6666,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -6678,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="U81" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -6686,26 +7070,26 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
         <v>49</v>
       </c>
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" t="s">
-        <v>33</v>
-      </c>
       <c r="E82" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F82" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" t="s">
         <v>49</v>
       </c>
-      <c r="H82" t="s">
-        <v>33</v>
-      </c>
       <c r="I82">
         <v>1</v>
       </c>
@@ -6725,22 +7109,22 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="Q82" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="R82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U82" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -6748,25 +7132,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="G83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H83" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -6787,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="Q83" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="R83">
         <v>2</v>
@@ -6802,7 +7186,7 @@
         <v>2</v>
       </c>
       <c r="U83" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -6810,26 +7194,26 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
         <v>49</v>
       </c>
-      <c r="C84" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" t="s">
-        <v>50</v>
-      </c>
       <c r="E84" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" t="s">
         <v>49</v>
       </c>
-      <c r="H84" t="s">
-        <v>50</v>
-      </c>
       <c r="I84">
         <v>1</v>
       </c>
@@ -6849,22 +7233,22 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="Q84" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U84" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -6872,25 +7256,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" t="s">
         <v>51</v>
       </c>
-      <c r="E85" t="s">
-        <v>110</v>
-      </c>
-      <c r="F85" t="s">
-        <v>141</v>
-      </c>
-      <c r="G85" t="s">
-        <v>49</v>
-      </c>
       <c r="H85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -6911,22 +7295,22 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="Q85" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U85" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -6934,25 +7318,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="F86" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="G86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -6973,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6985,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="U86" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6993,25 +7377,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="F87" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G87" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H87" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -7032,22 +7416,22 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="Q87" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="R87">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="U87" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -7055,25 +7439,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G88" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H88" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -7093,26 +7477,23 @@
       <c r="N88">
         <v>0</v>
       </c>
-      <c r="O88" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="Q88" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="R88">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U88" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -7120,25 +7501,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F89" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="G89" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H89" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -7158,26 +7539,23 @@
       <c r="N89">
         <v>0</v>
       </c>
-      <c r="O89" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="Q89" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="R89">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U89" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -7185,25 +7563,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="G90" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -7224,19 +7602,22 @@
         <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>152</v>
+        <v>243</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>308</v>
       </c>
       <c r="R90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U90" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -7244,25 +7625,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G91" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -7283,19 +7664,22 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>152</v>
+        <v>244</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>309</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U91" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -7303,25 +7687,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G92" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H92" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -7342,32 +7726,952 @@
         <v>0</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="Q92" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="R92">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S92">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" t="s">
+        <v>171</v>
+      </c>
+      <c r="G93" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" t="s">
+        <v>45</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>195</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" t="s">
+        <v>142</v>
+      </c>
+      <c r="F94" t="s">
+        <v>134</v>
+      </c>
+      <c r="G94" t="s">
+        <v>63</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>311</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
         <v>4</v>
       </c>
-      <c r="U92" t="s">
-        <v>258</v>
+      <c r="U94" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" t="s">
+        <v>135</v>
+      </c>
+      <c r="G95" t="s">
+        <v>63</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>312</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+      <c r="U95" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" t="s">
+        <v>136</v>
+      </c>
+      <c r="G96" t="s">
+        <v>63</v>
+      </c>
+      <c r="H96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>313</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" t="s">
+        <v>172</v>
+      </c>
+      <c r="G97" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" t="s">
+        <v>50</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>314</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" t="s">
+        <v>174</v>
+      </c>
+      <c r="G98" t="s">
+        <v>63</v>
+      </c>
+      <c r="H98" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>187</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" t="s">
+        <v>66</v>
+      </c>
+      <c r="E99" t="s">
+        <v>143</v>
+      </c>
+      <c r="F99" t="s">
+        <v>175</v>
+      </c>
+      <c r="G99" t="s">
+        <v>65</v>
+      </c>
+      <c r="H99" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P99" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>315</v>
+      </c>
+      <c r="R99">
+        <v>8</v>
+      </c>
+      <c r="S99">
+        <v>6</v>
+      </c>
+      <c r="T99">
+        <v>7</v>
+      </c>
+      <c r="U99" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>67</v>
+      </c>
+      <c r="E100" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" t="s">
+        <v>176</v>
+      </c>
+      <c r="G100" t="s">
+        <v>65</v>
+      </c>
+      <c r="H100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P100" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>316</v>
+      </c>
+      <c r="R100">
+        <v>9</v>
+      </c>
+      <c r="S100">
+        <v>6</v>
+      </c>
+      <c r="T100">
+        <v>4</v>
+      </c>
+      <c r="U100" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" t="s">
+        <v>144</v>
+      </c>
+      <c r="F101" t="s">
+        <v>148</v>
+      </c>
+      <c r="G101" t="s">
+        <v>69</v>
+      </c>
+      <c r="H101" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="s">
+        <v>250</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" t="s">
+        <v>144</v>
+      </c>
+      <c r="F102" t="s">
+        <v>177</v>
+      </c>
+      <c r="G102" t="s">
+        <v>69</v>
+      </c>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="P102" t="s">
+        <v>195</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" t="s">
+        <v>144</v>
+      </c>
+      <c r="F103" t="s">
+        <v>178</v>
+      </c>
+      <c r="G103" t="s">
+        <v>69</v>
+      </c>
+      <c r="H103" t="s">
+        <v>71</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="P103" t="s">
+        <v>195</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" t="s">
+        <v>145</v>
+      </c>
+      <c r="F104" t="s">
+        <v>148</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>40</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="P104" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>317</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" t="s">
+        <v>146</v>
+      </c>
+      <c r="F105" t="s">
+        <v>130</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="P105" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>318</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" t="s">
+        <v>74</v>
+      </c>
+      <c r="E106" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106" t="s">
+        <v>147</v>
+      </c>
+      <c r="G106" t="s">
+        <v>73</v>
+      </c>
+      <c r="H106" t="s">
+        <v>74</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="P106" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>319</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F107" t="s">
+        <v>179</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="P107" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>320</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="U107" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O10" r:id="rId1"/>
-    <hyperlink ref="O37" r:id="rId2"/>
-    <hyperlink ref="O48" r:id="rId3"/>
-    <hyperlink ref="O70" r:id="rId4"/>
-    <hyperlink ref="O88" r:id="rId5"/>
-    <hyperlink ref="O89" r:id="rId6"/>
+    <hyperlink ref="O16" r:id="rId1"/>
+    <hyperlink ref="O38" r:id="rId2"/>
+    <hyperlink ref="O53" r:id="rId3"/>
+    <hyperlink ref="O99" r:id="rId4"/>
+    <hyperlink ref="O100" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
